--- a/material/descriptionResults.xlsx
+++ b/material/descriptionResults.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\PN1PEPF00006A07\EXCELCNV\7741ea58-3653-4d5e-aab9-0e3c5703840b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{97432EC0-3DE5-4FFE-9919-CC5F0550F235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBD11B8F-ED4B-491E-BBF9-C07CC801092F}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{97432EC0-3DE5-4FFE-9919-CC5F0550F235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDB81CD2-75D8-4F05-9946-904AA628D3D1}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{D52E2305-FA05-454B-A2AC-EFA53A78D14C}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$A$1:$S$100</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2051,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EACE54-204F-4DD6-8FB7-789A4D938967}">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="A1:S100"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/material/descriptionResults.xlsx
+++ b/material/descriptionResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\PN1PEPF00006A07\EXCELCNV\7741ea58-3653-4d5e-aab9-0e3c5703840b\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://biocon.sharepoint.com/sites/DataManagementOffice/Shared Documents/Data Management Office/Data Cleansing/Python/Scripts/Code/material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{97432EC0-3DE5-4FFE-9919-CC5F0550F235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDB81CD2-75D8-4F05-9946-904AA628D3D1}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{97432EC0-3DE5-4FFE-9919-CC5F0550F235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A5EA525-AB48-4DD4-934D-8E6E112F621B}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{D52E2305-FA05-454B-A2AC-EFA53A78D14C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D52E2305-FA05-454B-A2AC-EFA53A78D14C}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -1212,7 +1212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1756,9 +1756,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1796,7 +1796,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1902,7 +1902,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2044,7 +2044,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2054,11 +2054,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EACE54-204F-4DD6-8FB7-789A4D938967}">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -2076,12 +2076,12 @@
     <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="49.7109375" customWidth="1"/>
     <col min="16" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30.75">
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2277,7 +2277,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="30.75">
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2469,7 +2469,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="30.75">
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>52139</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="30.75">
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>19700004</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="30.75">
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="45.75">
+    <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="30.75">
+    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="30.75">
+    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="45.75">
+    <row r="22" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="30.75">
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="30.75">
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="30.75">
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>3117332001</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>17545902</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="30.75">
+    <row r="34" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3802,7 +3802,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="30.75">
+    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="30.75">
+    <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="30.75">
+    <row r="41" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>1370369012</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>45808</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="30.75">
+    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>13683715</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="30.75">
+    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="30.75">
+    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>85178</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>1860983</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4794,7 +4794,7 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19" ht="30.75">
+    <row r="56" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>270733</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="30.75">
+    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5094,7 +5094,7 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="1:19" ht="30.75">
+    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="30.75">
+    <row r="63" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="30.75">
+    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>7104</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5445,7 +5445,7 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="30.75">
+    <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5590,7 +5590,7 @@
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="30.75">
+    <row r="73" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>240230</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="30.75">
+    <row r="78" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="30.75">
+    <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6096,7 +6096,7 @@
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="1:19" ht="30.75">
+    <row r="82" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="30.75">
+    <row r="83" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="30.75">
+    <row r="85" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6343,7 +6343,7 @@
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="30.75">
+    <row r="88" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="30.75">
+    <row r="90" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6633,7 +6633,7 @@
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6676,7 +6676,7 @@
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>528104</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="30.75">
+    <row r="97" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="30.75">
+    <row r="98" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="30.75">
+    <row r="99" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="30.75">
+    <row r="100" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7044,6 +7044,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="420f222d-d251-4793-a8fe-c42970fccb6f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f76b0799-e2f7-4936-ad37-6b693d23f604">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D5EB1F26A9D2448B0B462A4B95BBA8D" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ea32c86f466abe0e73487f21b288dc11">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f76b0799-e2f7-4936-ad37-6b693d23f604" xmlns:ns3="420f222d-d251-4793-a8fe-c42970fccb6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d43b4e9f170aba3ea30c55bd0541d73b" ns2:_="" ns3:_="">
     <xsd:import namespace="f76b0799-e2f7-4936-ad37-6b693d23f604"/>
@@ -7238,25 +7249,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="420f222d-d251-4793-a8fe-c42970fccb6f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f76b0799-e2f7-4936-ad37-6b693d23f604">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{606720B9-A56E-4CED-A43D-91C180D63E66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{606720B9-A56E-4CED-A43D-91C180D63E66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C9C8127-BF2B-4E5A-9DE7-CE3DBFD07659}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1780B14-ED00-4FDF-91F3-39F2F5054A89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="420f222d-d251-4793-a8fe-c42970fccb6f"/>
+    <ds:schemaRef ds:uri="f76b0799-e2f7-4936-ad37-6b693d23f604"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1780B14-ED00-4FDF-91F3-39F2F5054A89}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C9C8127-BF2B-4E5A-9DE7-CE3DBFD07659}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f76b0799-e2f7-4936-ad37-6b693d23f604"/>
+    <ds:schemaRef ds:uri="420f222d-d251-4793-a8fe-c42970fccb6f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/material/descriptionResults.xlsx
+++ b/material/descriptionResults.xlsx
@@ -7055,8 +7055,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D5EB1F26A9D2448B0B462A4B95BBA8D" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ea32c86f466abe0e73487f21b288dc11">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f76b0799-e2f7-4936-ad37-6b693d23f604" xmlns:ns3="420f222d-d251-4793-a8fe-c42970fccb6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d43b4e9f170aba3ea30c55bd0541d73b" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D5EB1F26A9D2448B0B462A4B95BBA8D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6477665bf9a2a8472856ca531ac1b9c4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f76b0799-e2f7-4936-ad37-6b693d23f604" xmlns:ns3="420f222d-d251-4793-a8fe-c42970fccb6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2e7bcfed897bc0eb12544d3fb556e05c" ns2:_="" ns3:_="">
     <xsd:import namespace="f76b0799-e2f7-4936-ad37-6b693d23f604"/>
     <xsd:import namespace="420f222d-d251-4793-a8fe-c42970fccb6f"/>
     <xsd:element name="properties">
@@ -7075,6 +7075,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -7132,6 +7133,11 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -7269,20 +7275,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C9C8127-BF2B-4E5A-9DE7-CE3DBFD07659}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f76b0799-e2f7-4936-ad37-6b693d23f604"/>
-    <ds:schemaRef ds:uri="420f222d-d251-4793-a8fe-c42970fccb6f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA6F5F40-C710-47ED-B290-6887F309BB23}"/>
 </file>